--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/Projects/acs2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F462557E-037E-794A-9165-1BB660208CD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD48D260-B6CD-D440-8F6D-49E550D91A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11660" yWindow="3900" windowWidth="33120" windowHeight="21260" xr2:uid="{C59E5D1B-900F-9745-BB9B-F644F9F51CF1}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>Marjorie McShane and Ivan Leon</t>
   </si>
   <si>
-    <t xml:space="preserve"> W.V. Yarlottt, A. Ochoa, A. Acharya, L. Bobrow, D. C. Estrada, D. Gomez, J. Zeng, D. McDonald, C. Miller and M. A. Finlayson</t>
-  </si>
-  <si>
     <t>Scott Friedman, Ian Magnususon, Vasanth Sarathy and Sonja Schmer-Galunder</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Slack Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W.V. Yarlott, A. Ochoa, A. Acharya, L. Bobrow, D. C. Estrada, D. Gomez, J. Zeng, D. McDonald, C. Miller and M. A. Finlayson</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>38</v>
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>10</v>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>29</v>
@@ -798,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>31</v>
@@ -952,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>30</v>
@@ -966,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>14</v>
@@ -975,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -994,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>15</v>
@@ -1092,7 +1092,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>32</v>
